--- a/biology/Mycologie/Dominikia_(champignon)/Dominikia_(champignon).xlsx
+++ b/biology/Mycologie/Dominikia_(champignon)/Dominikia_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominikia est un genre de champignons mycorhiziens de la famille des Glomeraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d’espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (5 novembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (5 novembre 2017) :
 Dominikia achra (Blaszk., D. Redecker, Koegel, Schützek, Oehl &amp; Kovács) Blaszk., Chwat &amp; Kovács, 2014
 Dominikia aurea (Oehl &amp; Sieverd.) Blaszk., Chwat, G.A. Silva &amp; Oehl, 2015
 Dominikia bernensis Oehl, Palenz., Sánchez-Castro, N.M.F. Sousa &amp; G.A. Silva, 2014
@@ -523,7 +537,7 @@
 Dominikia duoreactiva Blaszk., Góralska &amp; Chwat, 2015
 Dominikia iranica (Blaszk., Kovács &amp; Balázs) Blaszk., Chwat &amp; Kovács, 2014
 Dominikia minuta (Blaszk., Tadych &amp; Madej) Blaszk., Chwat &amp; Kovács, 2014
-Selon Index Fungorum                                      (5 novembre 2017)[3] :
+Selon Index Fungorum                                      (5 novembre 2017) :
 Dominikia achra (Błaszk., D. Redecker, Koegel, Schützek, Oehl &amp; Kovács) Błaszk., Chwat &amp; Kovács 2015
 Dominikia aurea (Oehl &amp; Sieverd.) Błaszk., Chwat, G.A. Silva &amp; Oehl 2015
 Dominikia bernensis Oehl, Palenz., Sánchez-Castro, N.M.F. Sousa &amp; G.A. Silva 2015
@@ -534,7 +548,7 @@
 Dominikia iranica (Błaszk., Kovács &amp; Balázs) Błaszk., Chwat &amp; Kovács 2015
 Dominikia lithuanica Błaszk., Chwat &amp; Góralska 2016
 Dominikia minuta (Błaszk., Tadych &amp; Madej) Błaszk., Chwat &amp; Kovács 2015
-Selon NCBI  (5 novembre 2017)[4] :
+Selon NCBI  (5 novembre 2017) :
 Dominikia achra
 Dominikia aurea
 Dominikia bernensis
